--- a/xlsx/环境保护_intext.xlsx
+++ b/xlsx/环境保护_intext.xlsx
@@ -15,1407 +15,1413 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="469">
   <si>
     <t>环境保护</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E4%BF%9D%E8%AD%B7</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_混合动力车辆_环境保护</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%95%BE%E5%88%87%E5%B0%94%C2%B7%E5%8D%A1%E9%80%8A</t>
+  </si>
+  <si>
+    <t>蕾切尔·卡逊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%82%E9%9D%9C%E7%9A%84%E6%98%A5%E5%A4%A9</t>
+  </si>
+  <si>
+    <t>寂静的春天</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%80%E8%99%AB%E5%89%82</t>
+  </si>
+  <si>
+    <t>杀虫剂</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E4%BF%9D%E8%AD%B7%E5%B1%80</t>
+  </si>
+  <si>
+    <t>环境保护局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95</t>
+  </si>
+  <si>
+    <t>法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%80%81%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>生态学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>联合国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
+  </si>
+  <si>
+    <t>瑞典</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%BE%B7%E5%93%A5%E5%B0%94%E6%91%A9</t>
+  </si>
+  <si>
+    <t>斯德哥尔摩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E4%BA%BA%E9%A1%9E%E7%92%B0%E5%A2%83%E6%9C%83%E8%AD%B0</t>
+  </si>
+  <si>
+    <t>联合国人类环境会议</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E7%8E%AF%E5%A2%83%E5%AE%A3%E8%A8%80</t>
+  </si>
+  <si>
+    <t>人类环境宣言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%80%81%E7%B3%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>生态系统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%AC%E9%83%BD%E8%AE%AE%E5%AE%9A%E4%B9%A6</t>
+  </si>
+  <si>
+    <t>京都议定书</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E6%8A%A4%E8%87%AD%E6%B0%A7%E5%B1%82%E7%BB%B4%E4%B9%9F%E7%BA%B3%E5%85%AC%E7%BA%A6</t>
+  </si>
+  <si>
+    <t>保护臭氧层维也纳公约</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E7%B4%84%E7%92%B0%E5%A2%83%E8%88%87%E7%99%BC%E5%B1%95%E5%AE%A3%E8%A8%80</t>
+  </si>
+  <si>
+    <t>里约环境与发展宣言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E7%8E%AF%E5%A2%83%E7%BD%B2</t>
+  </si>
+  <si>
+    <t>联合国环境署</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC%E5%B8%82</t>
+  </si>
+  <si>
+    <t>北京市</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E5%8E%85%E6%B0%B4%E5%BA%93</t>
+  </si>
+  <si>
+    <t>官厅水库</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%B3%E5%8C%97%E7%9C%81</t>
+  </si>
+  <si>
+    <t>河北省</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%9F%8E%E5%86%9C%E8%8D%AF%E5%8E%82</t>
+  </si>
+  <si>
+    <t>沙城农药厂</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/DDT</t>
+  </si>
+  <si>
+    <t>DDT</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2</t>
+  </si>
+  <si>
+    <t>国务院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E7%8E%AF%E5%A2%83%E4%BF%9D%E6%8A%A4%E6%80%BB%E5%B1%80</t>
+  </si>
+  <si>
+    <t>国家环境保护总局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B%E7%92%B0%E5%A2%83%E4%BF%9D%E8%AD%B7%E9%83%A8</t>
+  </si>
+  <si>
+    <t>中华人民共和国环境保护部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E4%BA%94%E8%A7%84%E5%88%92</t>
+  </si>
+  <si>
+    <t>十三五规划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8E%A7%E5%88%B6%E6%B1%A1%E6%9F%93%E7%89%A9%E6%8E%92%E6%94%BE%E6%94%BF%E7%AD%96</t>
+  </si>
+  <si>
+    <t>控制污染物排放政策</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B1%A1%E6%9F%93%E7%89%A9%E6%8E%92%E6%94%BE%E6%8E%A7%E5%88%B6%E6%8A%80%E6%9C%AF</t>
+  </si>
+  <si>
+    <t>污染物排放控制技术</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E7%BB%A9%E6%95%88%E6%8C%87%E6%95%B0</t>
+  </si>
+  <si>
+    <t>环境绩效指数</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E7%BA%A7%E7%94%9F%E7%89%A9%E5%A4%9A%E6%A0%B7%E6%80%A7%E5%9B%BD%E5%AE%B6%E5%90%8C%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>超级生物多样性国家同盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
+  </si>
+  <si>
+    <t>巴西</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>哥伦比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E5%B0%94</t>
+  </si>
+  <si>
+    <t>厄瓜多尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
+  </si>
+  <si>
+    <t>墨西哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81</t>
+  </si>
+  <si>
+    <t>秘鲁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%86%85%E7%91%9E%E6%8B%89</t>
+  </si>
+  <si>
+    <t>委内瑞拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E7%93%9C%E8%8B%8F%E7%80%91%E5%B8%83</t>
+  </si>
+  <si>
+    <t>伊瓜苏瀑布</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E9%92%9D%E5%8F%A3%E8%9E%88</t>
+  </si>
+  <si>
+    <t>墨西哥钝口螈</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%A0%A1%E7%A4%81</t>
+  </si>
+  <si>
+    <t>大堡礁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%90%88%E4%BD%9C%E4%B8%8E%E5%8F%91%E5%B1%95%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>经济合作与发展组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%81%97%E4%BA%A7</t>
+  </si>
+  <si>
+    <t>世界遗产</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B9%BF%E5%9C%B0%E5%85%AC%E7%BA%A6</t>
+  </si>
+  <si>
+    <t>湿地公约</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%97%E5%A8%81%E8%84%85%E7%89%A9%E7%A8%AE</t>
+  </si>
+  <si>
+    <t>受威胁物种</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%8D%A1%E6%9D%9C%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
+  </si>
+  <si>
+    <t>卡卡杜国家公园</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E5%8F%91%E5%B1%95%E6%8C%87%E6%95%B0</t>
+  </si>
+  <si>
+    <t>人类发展指数</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%98%E8%83%9C%E7%BE%8E%E5%9C%B0%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
+  </si>
+  <si>
+    <t>优胜美地国家公园</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E7%8E%AF%E5%A2%83%E4%BF%9D%E6%8A%A4%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国国家环境保护局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E5%80%99%E8%AE%8A%E5%8C%96</t>
+  </si>
+  <si>
+    <t>气候变化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E6%B0%94%E8%B4%A8%E9%87%8F%E6%8C%87%E6%95%B0</t>
+  </si>
+  <si>
+    <t>空气质量指数</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%A6%E7%89%A9%E8%B4%A8</t>
+  </si>
+  <si>
+    <t>化学物质</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E7%B4%AF-%E9%81%94%E4%BB%A4%E6%B5%81%E5%9F%9F</t>
+  </si>
+  <si>
+    <t>墨累-达令流域</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E6%96%AF%E9%A9%AC%E5%B0%BC%E4%BA%9A%E8%8D%92%E9%87%8E</t>
+  </si>
+  <si>
+    <t>塔斯马尼亚荒野</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E6%8C%81%E7%BB%AD%E5%8F%91%E5%B1%95</t>
+  </si>
+  <si>
+    <t>可持续发展</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AF%80%E8%83%BD%E6%B8%9B%E7%A2%B3</t>
+  </si>
+  <si>
+    <t>节能减碳</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%BF%E8%89%B2GDP</t>
+  </si>
+  <si>
+    <t>绿色GDP</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B1%A1%E6%9F%93</t>
+  </si>
+  <si>
+    <t>污染</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%AE%A4%E6%B0%A3%E9%AB%94</t>
+  </si>
+  <si>
+    <t>温室气体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%8F%98%E6%9A%96</t>
+  </si>
+  <si>
+    <t>全球变暖</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%94%E9%9B%BB%E5%8B%95%E8%BB%8A</t>
+  </si>
+  <si>
+    <t>纯电动车</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E5%8B%95%E5%8A%9B%E8%BB%8A%E8%BC%9B</t>
+  </si>
+  <si>
+    <t>混合动力车辆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E5%8B%95%E5%8A%9B%E9%90%B5%E8%B7%AF%E8%BB%8A%E8%BC%9B</t>
+  </si>
+  <si>
+    <t>混合动力铁路车辆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%8D%E7%94%9F%E5%88%B6%E5%8B%95</t>
+  </si>
+  <si>
+    <t>再生制动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E9%9B%BB%E5%BB%A0</t>
+  </si>
+  <si>
+    <t>发电厂</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E7%87%83%E6%B2%B9</t>
+  </si>
+  <si>
+    <t>生物燃油</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%97%BB%E9%A1%9E%E7%94%9F%E8%B3%AA%E7%87%83%E6%96%99</t>
+  </si>
+  <si>
+    <t>藻类生质燃料</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E6%97%85%E9%81%8A</t>
+  </si>
+  <si>
+    <t>生态旅游</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%80%AB%E7%90%86</t>
+  </si>
+  <si>
+    <t>环境伦理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BC%82%E7%B6%A0</t>
+  </si>
+  <si>
+    <t>漂绿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E9%80%80%E5%8C%96</t>
+  </si>
+  <si>
+    <t>环境退化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E4%BF%9D%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>环保主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:%E6%B1%A1%E6%9F%93</t>
+  </si>
+  <si>
+    <t>Template talk-污染</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E6%B0%A3%E6%B1%A1%E6%9F%93</t>
+  </si>
+  <si>
+    <t>空气污染</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%85%B8%E9%9B%A8</t>
+  </si>
+  <si>
+    <t>酸雨</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A2%B1%E9%9B%A8</t>
+  </si>
+  <si>
+    <t>碱雨</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%9E%81%E7%83%9F%E9%9C%9E</t>
+  </si>
+  <si>
+    <t>北极烟霞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B0%A3%E6%93%B4%E6%95%A3%E6%A8%A1%E5%BC%8F</t>
+  </si>
+  <si>
+    <t>大气扩散模式</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E9%BB%AF%E5%8C%96</t>
+  </si>
+  <si>
+    <t>全球黯化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%9A%B1%E8%9C%A2%E6%95%88%E6%87%89</t>
+  </si>
+  <si>
+    <t>蚱蜢效应</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AD%E6%B0%A7%E5%B1%82%E7%A9%BA%E6%B4%9E</t>
+  </si>
+  <si>
+    <t>臭氧层空洞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A4%E4%BB%A3%E7%83%B7%E7%83%83</t>
+  </si>
+  <si>
+    <t>卤代烷烃</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%87%B8%E6%B5%AE%E7%B2%92%E5%AD%90</t>
+  </si>
+  <si>
+    <t>悬浮粒子</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%85%99%E9%9C%A7</t>
+  </si>
+  <si>
+    <t>烟雾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%83%9F%E9%9C%9E</t>
+  </si>
+  <si>
+    <t>烟霞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E8%86%A0</t>
+  </si>
+  <si>
+    <t>气胶</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%B1%A1%E6%9F%93</t>
+  </si>
+  <si>
+    <t>水污染</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E8%90%A5%E5%85%BB%E5%8C%96</t>
+  </si>
+  <si>
+    <t>富营养化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B4%8B%E5%BB%A2%E6%A3%84%E7%89%A9</t>
+  </si>
+  <si>
+    <t>海洋废弃物</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%B9%E5%A4%96%E6%B4%A9</t>
+  </si>
+  <si>
+    <t>油外洩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E6%B1%A1%E6%9F%93</t>
+  </si>
+  <si>
+    <t>热污染</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B8%82%E5%BE%84%E6%B5%81</t>
+  </si>
+  <si>
+    <t>城市径流</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E8%B3%AA</t>
+  </si>
+  <si>
+    <t>水质</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E6%B0%B4</t>
+  </si>
+  <si>
+    <t>死水</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%B4%BB%E6%B1%A1%E6%B0%B4</t>
+  </si>
+  <si>
+    <t>生活污水</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E8%A1%A8%E9%80%95%E6%B5%81</t>
+  </si>
+  <si>
+    <t>地表迳流</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%87%B8%E6%B5%AE%E5%9B%BA%E9%AB%94</t>
+  </si>
+  <si>
+    <t>悬浮固体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%9C%B0%E6%B1%A1%E6%9F%93</t>
+  </si>
+  <si>
+    <t>土地污染</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E4%BF%AE%E5%BE%A9</t>
+  </si>
+  <si>
+    <t>生物修复</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Phytoremediation</t>
+  </si>
+  <si>
+    <t>en-Phytoremediation</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%99%A4%E8%8D%89%E5%89%82</t>
+  </si>
+  <si>
+    <t>除草剂</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%9C%E8%8D%AF</t>
+  </si>
+  <si>
+    <t>农药</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E9%87%91%E5%B1%9E</t>
+  </si>
+  <si>
+    <t>重金属</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%82%A5%E5%AE%B3</t>
+  </si>
+  <si>
+    <t>肥害</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BE%E5%B0%84%E6%80%A7%E6%B1%A1%E6%9F%93</t>
+  </si>
+  <si>
+    <t>放射性污染</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E8%A3%82%E5%8F%98%E4%BA%A7%E7%89%A9</t>
+  </si>
+  <si>
+    <t>核裂变产物</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BE%E5%B0%84%E6%80%A7%E8%90%BD%E4%B8%8B%E7%81%B0</t>
+  </si>
+  <si>
+    <t>放射性落下灰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%80%A5%E6%80%A7%E8%BE%90%E5%B0%84%E7%BB%BC%E5%90%88%E7%97%87</t>
+  </si>
+  <si>
+    <t>急性辐射综合症</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B3%B6%E7%8F%BE%E8%B1%A1</t>
+  </si>
+  <si>
+    <t>热岛现象</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%89%E5%AE%B3</t>
+  </si>
+  <si>
+    <t>光害</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%99%AA%E9%9F%B3%E6%B1%A1%E6%9F%93</t>
+  </si>
+  <si>
+    <t>噪音污染</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%9B%A0%E6%B1%A1%E6%9F%93</t>
+  </si>
+  <si>
+    <t>基因污染</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%B8%9A%E6%B1%A1%E6%9F%93</t>
+  </si>
+  <si>
+    <t>工业污染</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%88%B9%E8%88%B6%E6%B1%A1%E6%9F%93</t>
+  </si>
+  <si>
+    <t>船舶污染</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B1%A1%E6%9F%93%E7%89%A9</t>
+  </si>
+  <si>
+    <t>污染物</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9E%83%E5%9C%BE</t>
+  </si>
+  <si>
+    <t>垃圾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8C%81%E4%B9%85%E6%80%A7%E6%9C%89%E6%A9%9F%E6%B1%A1%E6%9F%93%E7%89%A9</t>
+  </si>
+  <si>
+    <t>持久性有机污染物</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%88%86%E6%B3%8C%E5%B9%B2%E6%93%BE%E7%B4%A0</t>
+  </si>
+  <si>
+    <t>内分泌干扰素</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E9%9B%8C%E6%BF%80%E7%B4%A0</t>
+  </si>
+  <si>
+    <t>环境雌激素</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E7%9B%91%E6%B5%8B</t>
+  </si>
+  <si>
+    <t>环境监测</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%BA%90%E5%9B%9E%E6%94%B6</t>
+  </si>
+  <si>
+    <t>资源回收</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9E%83%E5%9C%BE%E5%88%86%E9%A1%9E</t>
+  </si>
+  <si>
+    <t>垃圾分类</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E6%B1%A1%E6%9F%93%E6%8E%A7%E5%88%B6</t>
+  </si>
+  <si>
+    <t>环境污染控制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%BB%E6%80%A7%E6%B1%A1%E6%B3%A5%E6%B3%95</t>
+  </si>
+  <si>
+    <t>活性污泥法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/SBR%E6%B1%A1%E6%B0%B4%E5%A4%84%E7%90%86%E5%B7%A5%E8%89%BA</t>
+  </si>
+  <si>
+    <t>SBR污水处理工艺</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E8%86%9C%E6%B3%95</t>
+  </si>
+  <si>
+    <t>生物膜法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%8C%E6%B0%A7%E6%B3%95</t>
+  </si>
+  <si>
+    <t>厌氧法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%81%E5%BC%8F%E5%8E%8C%E6%B0%A7%E6%B1%A1%E6%B3%A5%E5%BA%8A</t>
+  </si>
+  <si>
+    <t>上流式厌氧污泥床</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B1%A1%E6%B0%B4%E5%A6%A5%E5%96%84%E8%99%95%E7%90%86%E7%8E%87</t>
+  </si>
+  <si>
+    <t>污水妥善处理率</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B1%A1%E6%B0%B4%E8%99%95%E7%90%86</t>
+  </si>
+  <si>
+    <t>污水处理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%8B%E9%A2%A8%E5%88%86%E9%9B%A2</t>
+  </si>
+  <si>
+    <t>旋风分离</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%B8%9A%E5%8F%91%E9%85%B5</t>
+  </si>
+  <si>
+    <t>工业发酵</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A0%86%E5%A1%AB</t>
+  </si>
+  <si>
+    <t>堆填</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9E%83%E5%9C%BE%E7%84%9A%E7%83%A7</t>
+  </si>
+  <si>
+    <t>垃圾焚烧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BA%E4%BD%93%E5%BA%9F%E5%BC%83%E7%89%A9%E7%9A%84%E5%A4%84%E7%90%86%E4%B8%8E%E5%A4%84%E7%BD%AE</t>
+  </si>
+  <si>
+    <t>固体废弃物的处理与处置</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%B1%A1%E6%9F%93%E6%8E%A7%E5%88%B6</t>
+  </si>
+  <si>
+    <t>水污染控制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E6%94%BE%E5%A4%A7%E4%BD%9C%E7%94%A8</t>
+  </si>
+  <si>
+    <t>生物放大作用</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E7%B4%AF%E7%A9%8D</t>
+  </si>
+  <si>
+    <t>生物累积</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E6%BF%83%E7%B8%AE%E6%80%A7</t>
+  </si>
+  <si>
+    <t>生物浓缩性</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%81%BE%E5%AE%B3</t>
+  </si>
+  <si>
+    <t>灾害</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%B1%A1%E6%9F%93%E4%BA%8B%E6%95%85%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>水污染事故列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E5%A1%91%E4%BB%81%E6%AD%A6%E5%BB%A0%E6%B1%99%E6%9F%93%E4%BA%8B%E4%BB%B6</t>
+  </si>
+  <si>
+    <t>台塑仁武厂污染事件</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B9%96%E5%8D%97%E7%9C%81%E5%85%92%E7%AB%A5%E9%89%9B%E4%B8%AD%E6%AF%92%E6%A1%88</t>
+  </si>
+  <si>
+    <t>湖南省儿童铅中毒案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%9B%9B%E5%A4%A7%E6%B1%A1%E6%9F%93%E7%97%85</t>
+  </si>
+  <si>
+    <t>日本四大污染病</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E6%B8%AF%E6%B9%BE%E6%BC%8F%E6%B2%B9%E4%BA%8B%E4%BB%B6</t>
+  </si>
+  <si>
+    <t>阿拉斯加港湾漏油事件</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%91%AA%E6%96%AF%E8%99%9F%E8%B2%A8%E8%BC%AA%E6%B2%B9%E6%B1%A1%E4%BA%8B%E4%BB%B6</t>
+  </si>
+  <si>
+    <t>阿玛斯号货轮油污事件</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E5%9C%92%E4%BA%8B%E4%BB%B6</t>
+  </si>
+  <si>
+    <t>林园事件</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E5%A2%A8%E8%A5%BF%E5%93%A5%E7%81%A3%E6%BC%8F%E6%B2%B9%E4%BA%8B%E6%95%85</t>
+  </si>
+  <si>
+    <t>2010年墨西哥湾漏油事故</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E5%A4%A7%E8%BF%9E%E6%96%B0%E6%B8%AF%E8%BE%93%E6%B2%B9%E7%AE%A1%E9%81%93%E7%88%86%E7%82%B8</t>
+  </si>
+  <si>
+    <t>2010年大连新港输油管道爆炸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%93%AC%E8%8E%B119-3%E6%B2%B9%E7%94%B0%E6%BA%A2%E6%B2%B9%E4%BA%8B%E6%95%85</t>
+  </si>
+  <si>
+    <t>蓬莱19-3油田溢油事故</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%A1%9E%E7%88%BE%E5%85%AC%E7%B4%84</t>
+  </si>
+  <si>
+    <t>巴塞尔公约</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%88%A9%E5%B0%94%E8%AE%AE%E5%AE%9A%E4%B9%A6</t>
+  </si>
+  <si>
+    <t>蒙特利尔议定书</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%BE%B7%E5%93%A5%E7%88%BE%E6%91%A9%E5%85%AC%E7%B4%84</t>
+  </si>
+  <si>
+    <t>斯德哥尔摩公约</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%B2%E6%AD%A2%E8%88%B9%E8%88%B6%E6%B1%99%E6%9F%93%E5%9C%8B%E9%9A%9B%E5%85%AC%E7%B4%84</t>
+  </si>
+  <si>
+    <t>防止船舶污染国际公约</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E5%8D%94%E8%AD%B0</t>
+  </si>
+  <si>
+    <t>巴黎协议</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E4%BF%A3%E5%85%AC%E7%BA%A6</t>
+  </si>
+  <si>
+    <t>水俣公约</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B1%A1%E6%9F%93%E8%80%85%E8%87%AA%E4%BB%98%E5%8E%9F%E5%89%87</t>
+  </si>
+  <si>
+    <t>污染者自付原则</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B1%A1%E6%9F%93%E6%BA%90%E7%9B%91%E6%B5%8B</t>
+  </si>
+  <si>
+    <t>污染源监测</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E7%BB%84%E7%BB%87%E5%90%8D%E5%BD%95</t>
+  </si>
+  <si>
+    <t>环境组织名录</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E7%92%B0%E5%A2%83%E7%BD%B2</t>
+  </si>
+  <si>
+    <t>欧洲环境署</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E7%9C%81</t>
+  </si>
+  <si>
+    <t>环境省</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E9%99%A2%E7%92%B0%E5%A2%83%E4%BF%9D%E8%AD%B7%E7%BD%B2</t>
+  </si>
+  <si>
+    <t>行政院环境保护署</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E7%8E%AF%E5%A2%83%E4%BF%9D%E6%8A%A4%E9%83%A8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E4%BF%9D%E8%AD%B7%E7%BD%B2_(%E9%A6%99%E6%B8%AF)</t>
+  </si>
+  <si>
+    <t>环境保护署 (香港)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%BF%E8%89%B2%E5%92%8C%E5%B9%B3</t>
+  </si>
+  <si>
+    <t>绿色和平</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>绿党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E6%8C%81%E7%BA%8C%E6%80%A7</t>
+  </si>
+  <si>
+    <t>可持续性</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E7%94%9F%E6%B4%BB</t>
+  </si>
+  <si>
+    <t>绿色生活</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%8F%8B%E5%96%84</t>
+  </si>
+  <si>
+    <t>环境友善</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E4%BF%9D%E6%8A%A4%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>环境保护主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E7%8F%BE%E4%BB%A3%E5%8C%96</t>
+  </si>
+  <si>
+    <t>生态现代化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3</t>
+  </si>
+  <si>
+    <t>人口</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E8%82%B2%E6%8E%A7%E5%88%B6</t>
+  </si>
+  <si>
+    <t>生育控制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E5%8A%83%E7%94%9F%E8%82%B2</t>
+  </si>
+  <si>
+    <t>计划生育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E9%81%8E%E5%A4%9A</t>
+  </si>
+  <si>
+    <t>人口过多</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E6%8E%A7%E5%88%B6</t>
+  </si>
+  <si>
+    <t>人口控制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB</t>
+  </si>
+  <si>
+    <t>消费</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%B6%88%E8%B2%BB%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>反消费主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E8%B6%B3%E8%B7%A1</t>
+  </si>
+  <si>
+    <t>生态足迹</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%AF%E7%9F%A5%E6%B6%88%E8%B2%BB</t>
+  </si>
+  <si>
+    <t>良知消费</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%81%8E%E5%BA%A6%E6%B6%88%E8%80%97</t>
+  </si>
+  <si>
+    <t>过度消耗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%9C%B0%E6%82%B2%E5%8A%87</t>
+  </si>
+  <si>
+    <t>公地悲剧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%80%82%E7%94%A8%E6%8A%80%E6%9C%AF</t>
+  </si>
+  <si>
+    <t>适用技术</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E7%A7%91%E6%8A%80</t>
+  </si>
+  <si>
+    <t>环境科技</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B3%A7%E9%A3%9F%E5%AE%89%E5%85%A8</t>
+  </si>
+  <si>
+    <t>粮食安全</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Local_food</t>
+  </si>
+  <si>
+    <t>en-Local food</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A8%B8%E9%96%80</t>
+  </si>
+  <si>
+    <t>朴门</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E7%BA%8C%E8%BE%B2%E6%A5%AD</t>
+  </si>
+  <si>
+    <t>永续农业</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Sustainable_fishery</t>
+  </si>
+  <si>
+    <t>en-Sustainable fishery</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Urban_horticulture</t>
+  </si>
+  <si>
+    <t>en-Urban horticulture</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%8D%B1%E6%A9%9F</t>
+  </si>
+  <si>
+    <t>水危机</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9C%81%E6%B0%B4%E6%95%88%E7%8E%87</t>
+  </si>
+  <si>
+    <t>省水效率</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AF%80%E7%B4%84%E7%94%A8%E6%B0%B4</t>
+  </si>
+  <si>
+    <t>节约用水</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E8%B3%AA%E7%87%83%E6%96%99</t>
+  </si>
+  <si>
+    <t>生质燃料</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A2%B3%E8%B6%B3%E8%B7%A1</t>
+  </si>
+  <si>
+    <t>碳足迹</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8E%92%E6%B1%A1%E4%BA%A4%E6%98%93</t>
+  </si>
+  <si>
+    <t>排污交易</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AF%80%E7%B4%84%E8%83%BD%E6%BA%90</t>
+  </si>
+  <si>
+    <t>节约能源</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Energy_descent</t>
+  </si>
+  <si>
+    <t>en-Energy descent</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BC%AF%E7%89%B9%E9%A1%B6%E7%82%B9</t>
+  </si>
+  <si>
+    <t>哈伯特顶点</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E5%86%8D%E7%94%9F%E8%83%BD%E6%BA%90</t>
+  </si>
+  <si>
+    <t>可再生能源</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E6%8C%81%E7%BA%8C%E8%83%BD%E6%BA%90</t>
+  </si>
+  <si>
+    <t>可持续能源</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E8%83%BD</t>
+  </si>
+  <si>
+    <t>太阳能</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E8%83%BD</t>
+  </si>
+  <si>
+    <t>风能</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B4%8B%E8%83%BD</t>
+  </si>
+  <si>
+    <t>海洋能</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%90%E6%96%99</t>
+  </si>
+  <si>
+    <t>材料</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E7%94%9F%E6%85%8B%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>工业生态学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%A4%9A%E6%A8%A3%E6%80%A7</t>
+  </si>
+  <si>
+    <t>生物多样性</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%9C%88</t>
+  </si>
+  <si>
+    <t>生物圈</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E8%82%B2%E7%94%9F%E7%89%A9%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>保育生物学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%80%95%E5%8D%B1%E7%89%A9%E7%A8%AE</t>
+  </si>
+  <si>
+    <t>濒危物种</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E6%96%B0%E4%B8%96%E6%BB%85%E7%B5%95%E4%BA%8B%E4%BB%B6</t>
+  </si>
+  <si>
+    <t>全新世灭绝事件</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A5%E4%BE%B5%E7%89%A9%E7%A8%AE</t>
+  </si>
+  <si>
+    <t>入侵物种</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E7%BB%B4%E6%8C%81%E4%BA%A7%E9%87%8F</t>
+  </si>
+  <si>
+    <t>可维持产量</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%80%81%E5%9F%8E</t>
+  </si>
+  <si>
+    <t>生态城</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E7%BA%8C%E8%A8%AD%E8%A8%88</t>
+  </si>
+  <si>
+    <t>永续设计</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E7%BA%8C%E9%81%8B%E8%BC%B8</t>
+  </si>
+  <si>
+    <t>永续运输</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E8%B3%87%E6%BA%90%E7%AE%A1%E7%90%86</t>
+  </si>
+  <si>
+    <t>环境资源管理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E5%8C%96%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>环境化学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E8%A8%AD%E8%A8%88</t>
+  </si>
+  <si>
+    <t>环境设计</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>环境经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E5%B7%A5%E7%A8%8B</t>
+  </si>
+  <si>
+    <t>环境工程</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>环境史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E6%B3%95</t>
+  </si>
+  <si>
+    <t>环境法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E7%A7%91%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>环境科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%80%AB%E7%89%B9%E8%98%AD%E5%A7%94%E5%93%A1%E6%9C%83</t>
+  </si>
+  <si>
+    <t>布伦特兰委员会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83%E9%AB%98%E5%B3%B0%E6%9C%83</t>
+  </si>
+  <si>
+    <t>地球高峰会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/21%E4%B8%96%E7%B4%80%E8%AD%B0%E7%A8%8B</t>
+  </si>
+  <si>
+    <t>21世纪议程</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%A4%9A%E6%A8%A3%E6%80%A7%E5%85%AC%E7%B4%84</t>
+  </si>
+  <si>
+    <t>生物多样性公约</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83%E5%AE%AA%E7%AB%A0</t>
+  </si>
+  <si>
+    <t>地球宪章</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E7%A6%A7%E5%B9%B4%E7%94%9F%E6%85%8B%E7%B3%BB%E7%B5%B1%E8%A9%95%E4%BC%B0</t>
+  </si>
+  <si>
+    <t>千禧年生态系统评估</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E6%98%86%E5%AE%A3%E8%A8%80</t>
+  </si>
+  <si>
+    <t>坎昆宣言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
+  </si>
+  <si>
+    <t>权威控制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>整合规范文档</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E4%BF%9D%E6%8A%A4</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>政策_政策_公共政策_环境保护</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%95%BE%E5%88%87%E5%B0%94%C2%B7%E5%8D%A1%E9%80%8A</t>
-  </si>
-  <si>
-    <t>蕾切尔·卡逊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%82%E9%9D%9C%E7%9A%84%E6%98%A5%E5%A4%A9</t>
-  </si>
-  <si>
-    <t>寂靜的春天</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%80%E8%99%AB%E5%89%82</t>
-  </si>
-  <si>
-    <t>杀虫剂</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E4%BF%9D%E8%AD%B7%E5%B1%80</t>
-  </si>
-  <si>
-    <t>環境保護局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95</t>
-  </si>
-  <si>
-    <t>法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%80%81%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>生态学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>联合国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
-  </si>
-  <si>
-    <t>瑞典</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%BE%B7%E5%93%A5%E5%B0%94%E6%91%A9</t>
-  </si>
-  <si>
-    <t>斯德哥尔摩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E4%BA%BA%E9%A1%9E%E7%92%B0%E5%A2%83%E6%9C%83%E8%AD%B0</t>
-  </si>
-  <si>
-    <t>聯合國人類環境會議</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E7%8E%AF%E5%A2%83%E5%AE%A3%E8%A8%80</t>
-  </si>
-  <si>
-    <t>人类环境宣言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%80%81%E7%B3%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>生态系统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%AC%E9%83%BD%E8%AE%AE%E5%AE%9A%E4%B9%A6</t>
-  </si>
-  <si>
-    <t>京都议定书</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E6%8A%A4%E8%87%AD%E6%B0%A7%E5%B1%82%E7%BB%B4%E4%B9%9F%E7%BA%B3%E5%85%AC%E7%BA%A6</t>
-  </si>
-  <si>
-    <t>保护臭氧层维也纳公约</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E7%B4%84%E7%92%B0%E5%A2%83%E8%88%87%E7%99%BC%E5%B1%95%E5%AE%A3%E8%A8%80</t>
-  </si>
-  <si>
-    <t>里約環境與發展宣言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E7%8E%AF%E5%A2%83%E7%BD%B2</t>
-  </si>
-  <si>
-    <t>联合国环境署</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC%E5%B8%82</t>
-  </si>
-  <si>
-    <t>北京市</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E5%8E%85%E6%B0%B4%E5%BA%93</t>
-  </si>
-  <si>
-    <t>官厅水库</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%B3%E5%8C%97%E7%9C%81</t>
-  </si>
-  <si>
-    <t>河北省</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%9F%8E%E5%86%9C%E8%8D%AF%E5%8E%82</t>
-  </si>
-  <si>
-    <t>沙城农药厂</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/DDT</t>
-  </si>
-  <si>
-    <t>DDT</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2</t>
-  </si>
-  <si>
-    <t>国务院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E7%8E%AF%E5%A2%83%E4%BF%9D%E6%8A%A4%E6%80%BB%E5%B1%80</t>
-  </si>
-  <si>
-    <t>国家环境保护总局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B%E7%92%B0%E5%A2%83%E4%BF%9D%E8%AD%B7%E9%83%A8</t>
-  </si>
-  <si>
-    <t>中華人民共和國環境保護部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E4%BA%94%E8%A7%84%E5%88%92</t>
-  </si>
-  <si>
-    <t>十三五规划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8E%A7%E5%88%B6%E6%B1%A1%E6%9F%93%E7%89%A9%E6%8E%92%E6%94%BE%E6%94%BF%E7%AD%96</t>
-  </si>
-  <si>
-    <t>控制污染物排放政策</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B1%A1%E6%9F%93%E7%89%A9%E6%8E%92%E6%94%BE%E6%8E%A7%E5%88%B6%E6%8A%80%E6%9C%AF</t>
-  </si>
-  <si>
-    <t>污染物排放控制技术</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E7%BB%A9%E6%95%88%E6%8C%87%E6%95%B0</t>
-  </si>
-  <si>
-    <t>环境绩效指数</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E7%BA%A7%E7%94%9F%E7%89%A9%E5%A4%9A%E6%A0%B7%E6%80%A7%E5%9B%BD%E5%AE%B6%E5%90%8C%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>超级生物多样性国家同盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
-  </si>
-  <si>
-    <t>巴西</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>哥伦比亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E5%B0%94</t>
-  </si>
-  <si>
-    <t>厄瓜多尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81</t>
-  </si>
-  <si>
-    <t>秘鲁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%86%85%E7%91%9E%E6%8B%89</t>
-  </si>
-  <si>
-    <t>委内瑞拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E7%93%9C%E8%8B%8F%E7%80%91%E5%B8%83</t>
-  </si>
-  <si>
-    <t>伊瓜苏瀑布</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E9%92%9D%E5%8F%A3%E8%9E%88</t>
-  </si>
-  <si>
-    <t>墨西哥钝口螈</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%A0%A1%E7%A4%81</t>
-  </si>
-  <si>
-    <t>大堡礁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%90%88%E4%BD%9C%E4%B8%8E%E5%8F%91%E5%B1%95%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>经济合作与发展组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%81%97%E4%BA%A7</t>
-  </si>
-  <si>
-    <t>世界遗产</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B9%BF%E5%9C%B0%E5%85%AC%E7%BA%A6</t>
-  </si>
-  <si>
-    <t>湿地公约</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%97%E5%A8%81%E8%84%85%E7%89%A9%E7%A8%AE</t>
-  </si>
-  <si>
-    <t>受威脅物種</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%8D%A1%E6%9D%9C%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
-  </si>
-  <si>
-    <t>卡卡杜国家公园</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E5%8F%91%E5%B1%95%E6%8C%87%E6%95%B0</t>
-  </si>
-  <si>
-    <t>人类发展指数</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%98%E8%83%9C%E7%BE%8E%E5%9C%B0%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
-  </si>
-  <si>
-    <t>优胜美地国家公园</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E7%8E%AF%E5%A2%83%E4%BF%9D%E6%8A%A4%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美国国家环境保护局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E5%80%99%E8%AE%8A%E5%8C%96</t>
-  </si>
-  <si>
-    <t>氣候變化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E6%B0%94%E8%B4%A8%E9%87%8F%E6%8C%87%E6%95%B0</t>
-  </si>
-  <si>
-    <t>空气质量指数</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%A6%E7%89%A9%E8%B4%A8</t>
-  </si>
-  <si>
-    <t>化学物质</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E7%B4%AF-%E9%81%94%E4%BB%A4%E6%B5%81%E5%9F%9F</t>
-  </si>
-  <si>
-    <t>墨累-達令流域</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E6%96%AF%E9%A9%AC%E5%B0%BC%E4%BA%9A%E8%8D%92%E9%87%8E</t>
-  </si>
-  <si>
-    <t>塔斯马尼亚荒野</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E6%8C%81%E7%BB%AD%E5%8F%91%E5%B1%95</t>
-  </si>
-  <si>
-    <t>可持续发展</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AF%80%E8%83%BD%E6%B8%9B%E7%A2%B3</t>
-  </si>
-  <si>
-    <t>節能減碳</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%BF%E8%89%B2GDP</t>
-  </si>
-  <si>
-    <t>绿色GDP</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B1%A1%E6%9F%93</t>
-  </si>
-  <si>
-    <t>污染</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%AE%A4%E6%B0%A3%E9%AB%94</t>
-  </si>
-  <si>
-    <t>溫室氣體</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%8F%98%E6%9A%96</t>
-  </si>
-  <si>
-    <t>全球变暖</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%94%E9%9B%BB%E5%8B%95%E8%BB%8A</t>
-  </si>
-  <si>
-    <t>純電動車</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E5%8B%95%E5%8A%9B%E8%BB%8A%E8%BC%9B</t>
-  </si>
-  <si>
-    <t>混合動力車輛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E5%8B%95%E5%8A%9B%E9%90%B5%E8%B7%AF%E8%BB%8A%E8%BC%9B</t>
-  </si>
-  <si>
-    <t>混合動力鐵路車輛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%8D%E7%94%9F%E5%88%B6%E5%8B%95</t>
-  </si>
-  <si>
-    <t>再生制動</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E9%9B%BB%E5%BB%A0</t>
-  </si>
-  <si>
-    <t>發電廠</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E7%87%83%E6%B2%B9</t>
-  </si>
-  <si>
-    <t>生物燃油</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%97%BB%E9%A1%9E%E7%94%9F%E8%B3%AA%E7%87%83%E6%96%99</t>
-  </si>
-  <si>
-    <t>藻類生質燃料</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E6%97%85%E9%81%8A</t>
-  </si>
-  <si>
-    <t>生態旅遊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%80%AB%E7%90%86</t>
-  </si>
-  <si>
-    <t>環境倫理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BC%82%E7%B6%A0</t>
-  </si>
-  <si>
-    <t>漂綠</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E9%80%80%E5%8C%96</t>
-  </si>
-  <si>
-    <t>环境退化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E4%BF%9D%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>環保主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E6%B1%A1%E6%9F%93</t>
-  </si>
-  <si>
-    <t>Template talk-污染</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E6%B0%A3%E6%B1%A1%E6%9F%93</t>
-  </si>
-  <si>
-    <t>空氣污染</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%85%B8%E9%9B%A8</t>
-  </si>
-  <si>
-    <t>酸雨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A2%B1%E9%9B%A8</t>
-  </si>
-  <si>
-    <t>碱雨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%9E%81%E7%83%9F%E9%9C%9E</t>
-  </si>
-  <si>
-    <t>北极烟霞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B0%A3%E6%93%B4%E6%95%A3%E6%A8%A1%E5%BC%8F</t>
-  </si>
-  <si>
-    <t>大氣擴散模式</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E9%BB%AF%E5%8C%96</t>
-  </si>
-  <si>
-    <t>全球黯化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%9A%B1%E8%9C%A2%E6%95%88%E6%87%89</t>
-  </si>
-  <si>
-    <t>蚱蜢效應</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AD%E6%B0%A7%E5%B1%82%E7%A9%BA%E6%B4%9E</t>
-  </si>
-  <si>
-    <t>臭氧层空洞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A4%E4%BB%A3%E7%83%B7%E7%83%83</t>
-  </si>
-  <si>
-    <t>卤代烷烃</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%87%B8%E6%B5%AE%E7%B2%92%E5%AD%90</t>
-  </si>
-  <si>
-    <t>懸浮粒子</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%85%99%E9%9C%A7</t>
-  </si>
-  <si>
-    <t>煙霧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%83%9F%E9%9C%9E</t>
-  </si>
-  <si>
-    <t>烟霞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E8%86%A0</t>
-  </si>
-  <si>
-    <t>氣膠</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%B1%A1%E6%9F%93</t>
-  </si>
-  <si>
-    <t>水污染</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E8%90%A5%E5%85%BB%E5%8C%96</t>
-  </si>
-  <si>
-    <t>富营养化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B4%8B%E5%BB%A2%E6%A3%84%E7%89%A9</t>
-  </si>
-  <si>
-    <t>海洋廢棄物</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%B9%E5%A4%96%E6%B4%A9</t>
-  </si>
-  <si>
-    <t>油外洩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E6%B1%A1%E6%9F%93</t>
-  </si>
-  <si>
-    <t>熱污染</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B8%82%E5%BE%84%E6%B5%81</t>
-  </si>
-  <si>
-    <t>城市径流</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E8%B3%AA</t>
-  </si>
-  <si>
-    <t>水質</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E6%B0%B4</t>
-  </si>
-  <si>
-    <t>死水</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%B4%BB%E6%B1%A1%E6%B0%B4</t>
-  </si>
-  <si>
-    <t>生活污水</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E8%A1%A8%E9%80%95%E6%B5%81</t>
-  </si>
-  <si>
-    <t>地表逕流</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%87%B8%E6%B5%AE%E5%9B%BA%E9%AB%94</t>
-  </si>
-  <si>
-    <t>懸浮固體</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%9C%B0%E6%B1%A1%E6%9F%93</t>
-  </si>
-  <si>
-    <t>土地污染</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E4%BF%AE%E5%BE%A9</t>
-  </si>
-  <si>
-    <t>生物修復</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Phytoremediation</t>
-  </si>
-  <si>
-    <t>en-Phytoremediation</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%99%A4%E8%8D%89%E5%89%82</t>
-  </si>
-  <si>
-    <t>除草剂</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%9C%E8%8D%AF</t>
-  </si>
-  <si>
-    <t>农药</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E9%87%91%E5%B1%9E</t>
-  </si>
-  <si>
-    <t>重金属</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%82%A5%E5%AE%B3</t>
-  </si>
-  <si>
-    <t>肥害</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BE%E5%B0%84%E6%80%A7%E6%B1%A1%E6%9F%93</t>
-  </si>
-  <si>
-    <t>放射性污染</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E8%A3%82%E5%8F%98%E4%BA%A7%E7%89%A9</t>
-  </si>
-  <si>
-    <t>核裂变产物</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BE%E5%B0%84%E6%80%A7%E8%90%BD%E4%B8%8B%E7%81%B0</t>
-  </si>
-  <si>
-    <t>放射性落下灰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%80%A5%E6%80%A7%E8%BE%90%E5%B0%84%E7%BB%BC%E5%90%88%E7%97%87</t>
-  </si>
-  <si>
-    <t>急性辐射综合症</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B3%B6%E7%8F%BE%E8%B1%A1</t>
-  </si>
-  <si>
-    <t>熱島現象</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%89%E5%AE%B3</t>
-  </si>
-  <si>
-    <t>光害</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%99%AA%E9%9F%B3%E6%B1%A1%E6%9F%93</t>
-  </si>
-  <si>
-    <t>噪音污染</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%9B%A0%E6%B1%A1%E6%9F%93</t>
-  </si>
-  <si>
-    <t>基因污染</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%B8%9A%E6%B1%A1%E6%9F%93</t>
-  </si>
-  <si>
-    <t>工业污染</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%88%B9%E8%88%B6%E6%B1%A1%E6%9F%93</t>
-  </si>
-  <si>
-    <t>船舶污染</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B1%A1%E6%9F%93%E7%89%A9</t>
-  </si>
-  <si>
-    <t>污染物</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9E%83%E5%9C%BE</t>
-  </si>
-  <si>
-    <t>垃圾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8C%81%E4%B9%85%E6%80%A7%E6%9C%89%E6%A9%9F%E6%B1%A1%E6%9F%93%E7%89%A9</t>
-  </si>
-  <si>
-    <t>持久性有機污染物</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%88%86%E6%B3%8C%E5%B9%B2%E6%93%BE%E7%B4%A0</t>
-  </si>
-  <si>
-    <t>內分泌干擾素</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E9%9B%8C%E6%BF%80%E7%B4%A0</t>
-  </si>
-  <si>
-    <t>環境雌激素</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E7%9B%91%E6%B5%8B</t>
-  </si>
-  <si>
-    <t>环境监测</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%BA%90%E5%9B%9E%E6%94%B6</t>
-  </si>
-  <si>
-    <t>資源回收</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9E%83%E5%9C%BE%E5%88%86%E9%A1%9E</t>
-  </si>
-  <si>
-    <t>垃圾分類</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E6%B1%A1%E6%9F%93%E6%8E%A7%E5%88%B6</t>
-  </si>
-  <si>
-    <t>环境污染控制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%BB%E6%80%A7%E6%B1%A1%E6%B3%A5%E6%B3%95</t>
-  </si>
-  <si>
-    <t>活性污泥法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/SBR%E6%B1%A1%E6%B0%B4%E5%A4%84%E7%90%86%E5%B7%A5%E8%89%BA</t>
-  </si>
-  <si>
-    <t>SBR污水处理工艺</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E8%86%9C%E6%B3%95</t>
-  </si>
-  <si>
-    <t>生物膜法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%8C%E6%B0%A7%E6%B3%95</t>
-  </si>
-  <si>
-    <t>厌氧法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%81%E5%BC%8F%E5%8E%8C%E6%B0%A7%E6%B1%A1%E6%B3%A5%E5%BA%8A</t>
-  </si>
-  <si>
-    <t>上流式厌氧污泥床</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B1%A1%E6%B0%B4%E5%A6%A5%E5%96%84%E8%99%95%E7%90%86%E7%8E%87</t>
-  </si>
-  <si>
-    <t>污水妥善處理率</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B1%A1%E6%B0%B4%E8%99%95%E7%90%86</t>
-  </si>
-  <si>
-    <t>污水處理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%8B%E9%A2%A8%E5%88%86%E9%9B%A2</t>
-  </si>
-  <si>
-    <t>旋風分離</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%B8%9A%E5%8F%91%E9%85%B5</t>
-  </si>
-  <si>
-    <t>工业发酵</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A0%86%E5%A1%AB</t>
-  </si>
-  <si>
-    <t>堆填</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9E%83%E5%9C%BE%E7%84%9A%E7%83%A7</t>
-  </si>
-  <si>
-    <t>垃圾焚烧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BA%E4%BD%93%E5%BA%9F%E5%BC%83%E7%89%A9%E7%9A%84%E5%A4%84%E7%90%86%E4%B8%8E%E5%A4%84%E7%BD%AE</t>
-  </si>
-  <si>
-    <t>固体废弃物的处理与处置</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%B1%A1%E6%9F%93%E6%8E%A7%E5%88%B6</t>
-  </si>
-  <si>
-    <t>水污染控制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E6%94%BE%E5%A4%A7%E4%BD%9C%E7%94%A8</t>
-  </si>
-  <si>
-    <t>生物放大作用</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E7%B4%AF%E7%A9%8D</t>
-  </si>
-  <si>
-    <t>生物累積</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E6%BF%83%E7%B8%AE%E6%80%A7</t>
-  </si>
-  <si>
-    <t>生物濃縮性</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%81%BE%E5%AE%B3</t>
-  </si>
-  <si>
-    <t>灾害</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%B1%A1%E6%9F%93%E4%BA%8B%E6%95%85%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>水污染事故列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E5%A1%91%E4%BB%81%E6%AD%A6%E5%BB%A0%E6%B1%99%E6%9F%93%E4%BA%8B%E4%BB%B6</t>
-  </si>
-  <si>
-    <t>台塑仁武廠汙染事件</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B9%96%E5%8D%97%E7%9C%81%E5%85%92%E7%AB%A5%E9%89%9B%E4%B8%AD%E6%AF%92%E6%A1%88</t>
-  </si>
-  <si>
-    <t>湖南省兒童鉛中毒案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%9B%9B%E5%A4%A7%E6%B1%A1%E6%9F%93%E7%97%85</t>
-  </si>
-  <si>
-    <t>日本四大污染病</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E6%B8%AF%E6%B9%BE%E6%BC%8F%E6%B2%B9%E4%BA%8B%E4%BB%B6</t>
-  </si>
-  <si>
-    <t>阿拉斯加港湾漏油事件</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%91%AA%E6%96%AF%E8%99%9F%E8%B2%A8%E8%BC%AA%E6%B2%B9%E6%B1%A1%E4%BA%8B%E4%BB%B6</t>
-  </si>
-  <si>
-    <t>阿瑪斯號貨輪油污事件</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E5%9C%92%E4%BA%8B%E4%BB%B6</t>
-  </si>
-  <si>
-    <t>林園事件</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E5%A2%A8%E8%A5%BF%E5%93%A5%E7%81%A3%E6%BC%8F%E6%B2%B9%E4%BA%8B%E6%95%85</t>
-  </si>
-  <si>
-    <t>2010年墨西哥灣漏油事故</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E5%A4%A7%E8%BF%9E%E6%96%B0%E6%B8%AF%E8%BE%93%E6%B2%B9%E7%AE%A1%E9%81%93%E7%88%86%E7%82%B8</t>
-  </si>
-  <si>
-    <t>2010年大连新港输油管道爆炸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%93%AC%E8%8E%B119-3%E6%B2%B9%E7%94%B0%E6%BA%A2%E6%B2%B9%E4%BA%8B%E6%95%85</t>
-  </si>
-  <si>
-    <t>蓬莱19-3油田溢油事故</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%A1%9E%E7%88%BE%E5%85%AC%E7%B4%84</t>
-  </si>
-  <si>
-    <t>巴塞爾公約</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%88%A9%E5%B0%94%E8%AE%AE%E5%AE%9A%E4%B9%A6</t>
-  </si>
-  <si>
-    <t>蒙特利尔议定书</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%BE%B7%E5%93%A5%E7%88%BE%E6%91%A9%E5%85%AC%E7%B4%84</t>
-  </si>
-  <si>
-    <t>斯德哥爾摩公約</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%B2%E6%AD%A2%E8%88%B9%E8%88%B6%E6%B1%99%E6%9F%93%E5%9C%8B%E9%9A%9B%E5%85%AC%E7%B4%84</t>
-  </si>
-  <si>
-    <t>防止船舶汙染國際公約</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E5%8D%94%E8%AD%B0</t>
-  </si>
-  <si>
-    <t>巴黎協議</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E4%BF%A3%E5%85%AC%E7%BA%A6</t>
-  </si>
-  <si>
-    <t>水俣公约</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B1%A1%E6%9F%93%E8%80%85%E8%87%AA%E4%BB%98%E5%8E%9F%E5%89%87</t>
-  </si>
-  <si>
-    <t>污染者自付原則</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B1%A1%E6%9F%93%E6%BA%90%E7%9B%91%E6%B5%8B</t>
-  </si>
-  <si>
-    <t>污染源监测</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E7%BB%84%E7%BB%87%E5%90%8D%E5%BD%95</t>
-  </si>
-  <si>
-    <t>环境组织名录</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E7%92%B0%E5%A2%83%E7%BD%B2</t>
-  </si>
-  <si>
-    <t>歐洲環境署</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E7%9C%81</t>
-  </si>
-  <si>
-    <t>環境省</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E9%99%A2%E7%92%B0%E5%A2%83%E4%BF%9D%E8%AD%B7%E7%BD%B2</t>
-  </si>
-  <si>
-    <t>行政院環境保護署</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E7%8E%AF%E5%A2%83%E4%BF%9D%E6%8A%A4%E9%83%A8</t>
-  </si>
-  <si>
-    <t>中华人民共和国环境保护部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E4%BF%9D%E8%AD%B7%E7%BD%B2_(%E9%A6%99%E6%B8%AF)</t>
-  </si>
-  <si>
-    <t>環境保護署 (香港)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%BF%E8%89%B2%E5%92%8C%E5%B9%B3</t>
-  </si>
-  <si>
-    <t>绿色和平</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>綠黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E6%8C%81%E7%BA%8C%E6%80%A7</t>
-  </si>
-  <si>
-    <t>可持續性</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E7%94%9F%E6%B4%BB</t>
-  </si>
-  <si>
-    <t>綠色生活</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%8F%8B%E5%96%84</t>
-  </si>
-  <si>
-    <t>環境友善</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E4%BF%9D%E6%8A%A4%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>环境保护主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E7%8F%BE%E4%BB%A3%E5%8C%96</t>
-  </si>
-  <si>
-    <t>生態現代化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3</t>
-  </si>
-  <si>
-    <t>人口</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E8%82%B2%E6%8E%A7%E5%88%B6</t>
-  </si>
-  <si>
-    <t>生育控制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E5%8A%83%E7%94%9F%E8%82%B2</t>
-  </si>
-  <si>
-    <t>計劃生育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E9%81%8E%E5%A4%9A</t>
-  </si>
-  <si>
-    <t>人口過多</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E6%8E%A7%E5%88%B6</t>
-  </si>
-  <si>
-    <t>人口控制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB</t>
-  </si>
-  <si>
-    <t>消費</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%B6%88%E8%B2%BB%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>反消費主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E8%B6%B3%E8%B7%A1</t>
-  </si>
-  <si>
-    <t>生態足跡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%AF%E7%9F%A5%E6%B6%88%E8%B2%BB</t>
-  </si>
-  <si>
-    <t>良知消費</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%8E%E5%BA%A6%E6%B6%88%E8%80%97</t>
-  </si>
-  <si>
-    <t>過度消耗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%9C%B0%E6%82%B2%E5%8A%87</t>
-  </si>
-  <si>
-    <t>公地悲劇</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%80%82%E7%94%A8%E6%8A%80%E6%9C%AF</t>
-  </si>
-  <si>
-    <t>适用技术</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E7%A7%91%E6%8A%80</t>
-  </si>
-  <si>
-    <t>環境科技</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B3%A7%E9%A3%9F%E5%AE%89%E5%85%A8</t>
-  </si>
-  <si>
-    <t>糧食安全</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Local_food</t>
-  </si>
-  <si>
-    <t>en-Local food</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A8%B8%E9%96%80</t>
-  </si>
-  <si>
-    <t>樸門</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E7%BA%8C%E8%BE%B2%E6%A5%AD</t>
-  </si>
-  <si>
-    <t>永續農業</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Sustainable_fishery</t>
-  </si>
-  <si>
-    <t>en-Sustainable fishery</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Urban_horticulture</t>
-  </si>
-  <si>
-    <t>en-Urban horticulture</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%8D%B1%E6%A9%9F</t>
-  </si>
-  <si>
-    <t>水危機</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9C%81%E6%B0%B4%E6%95%88%E7%8E%87</t>
-  </si>
-  <si>
-    <t>省水效率</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AF%80%E7%B4%84%E7%94%A8%E6%B0%B4</t>
-  </si>
-  <si>
-    <t>節約用水</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E8%B3%AA%E7%87%83%E6%96%99</t>
-  </si>
-  <si>
-    <t>生質燃料</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A2%B3%E8%B6%B3%E8%B7%A1</t>
-  </si>
-  <si>
-    <t>碳足跡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8E%92%E6%B1%A1%E4%BA%A4%E6%98%93</t>
-  </si>
-  <si>
-    <t>排污交易</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AF%80%E7%B4%84%E8%83%BD%E6%BA%90</t>
-  </si>
-  <si>
-    <t>節約能源</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Energy_descent</t>
-  </si>
-  <si>
-    <t>en-Energy descent</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BC%AF%E7%89%B9%E9%A1%B6%E7%82%B9</t>
-  </si>
-  <si>
-    <t>哈伯特顶点</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E5%86%8D%E7%94%9F%E8%83%BD%E6%BA%90</t>
-  </si>
-  <si>
-    <t>可再生能源</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E6%8C%81%E7%BA%8C%E8%83%BD%E6%BA%90</t>
-  </si>
-  <si>
-    <t>可持續能源</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E8%83%BD</t>
-  </si>
-  <si>
-    <t>太陽能</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E8%83%BD</t>
-  </si>
-  <si>
-    <t>風能</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B4%8B%E8%83%BD</t>
-  </si>
-  <si>
-    <t>海洋能</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%90%E6%96%99</t>
-  </si>
-  <si>
-    <t>材料</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E7%94%9F%E6%85%8B%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>工業生態學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%A4%9A%E6%A8%A3%E6%80%A7</t>
-  </si>
-  <si>
-    <t>生物多樣性</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%9C%88</t>
-  </si>
-  <si>
-    <t>生物圈</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E8%82%B2%E7%94%9F%E7%89%A9%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>保育生物學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%80%95%E5%8D%B1%E7%89%A9%E7%A8%AE</t>
-  </si>
-  <si>
-    <t>瀕危物種</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E6%96%B0%E4%B8%96%E6%BB%85%E7%B5%95%E4%BA%8B%E4%BB%B6</t>
-  </si>
-  <si>
-    <t>全新世滅絕事件</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A5%E4%BE%B5%E7%89%A9%E7%A8%AE</t>
-  </si>
-  <si>
-    <t>入侵物種</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E7%BB%B4%E6%8C%81%E4%BA%A7%E9%87%8F</t>
-  </si>
-  <si>
-    <t>可维持产量</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%80%81%E5%9F%8E</t>
-  </si>
-  <si>
-    <t>生态城</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E7%BA%8C%E8%A8%AD%E8%A8%88</t>
-  </si>
-  <si>
-    <t>永續設計</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E7%BA%8C%E9%81%8B%E8%BC%B8</t>
-  </si>
-  <si>
-    <t>永續運輸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E8%B3%87%E6%BA%90%E7%AE%A1%E7%90%86</t>
-  </si>
-  <si>
-    <t>環境資源管理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E5%8C%96%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>环境化学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E8%A8%AD%E8%A8%88</t>
-  </si>
-  <si>
-    <t>環境設計</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>环境经济学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E5%B7%A5%E7%A8%8B</t>
-  </si>
-  <si>
-    <t>环境工程</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>環境史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E6%B3%95</t>
-  </si>
-  <si>
-    <t>环境法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E7%A7%91%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>環境科學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%80%AB%E7%89%B9%E8%98%AD%E5%A7%94%E5%93%A1%E6%9C%83</t>
-  </si>
-  <si>
-    <t>布倫特蘭委員會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83%E9%AB%98%E5%B3%B0%E6%9C%83</t>
-  </si>
-  <si>
-    <t>地球高峰會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/21%E4%B8%96%E7%B4%80%E8%AD%B0%E7%A8%8B</t>
-  </si>
-  <si>
-    <t>21世紀議程</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%A4%9A%E6%A8%A3%E6%80%A7%E5%85%AC%E7%B4%84</t>
-  </si>
-  <si>
-    <t>生物多樣性公約</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83%E5%AE%AA%E7%AB%A0</t>
-  </si>
-  <si>
-    <t>地球宪章</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E7%A6%A7%E5%B9%B4%E7%94%9F%E6%85%8B%E7%B3%BB%E7%B5%B1%E8%A9%95%E4%BC%B0</t>
-  </si>
-  <si>
-    <t>千禧年生態系統評估</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E6%98%86%E5%AE%A3%E8%A8%80</t>
-  </si>
-  <si>
-    <t>坎昆宣言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
-  </si>
-  <si>
-    <t>權威控制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>整合规范文档</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -1764,7 +1770,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I238"/>
+  <dimension ref="A1:I240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6542,7 +6548,7 @@
         <v>325</v>
       </c>
       <c r="F165" t="s">
-        <v>326</v>
+        <v>54</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6568,10 +6574,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>326</v>
+      </c>
+      <c r="F166" t="s">
         <v>327</v>
-      </c>
-      <c r="F166" t="s">
-        <v>328</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6597,10 +6603,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>328</v>
+      </c>
+      <c r="F167" t="s">
         <v>329</v>
-      </c>
-      <c r="F167" t="s">
-        <v>330</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6626,10 +6632,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>330</v>
+      </c>
+      <c r="F168" t="s">
         <v>331</v>
-      </c>
-      <c r="F168" t="s">
-        <v>332</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -6655,10 +6661,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>332</v>
+      </c>
+      <c r="F169" t="s">
         <v>333</v>
-      </c>
-      <c r="F169" t="s">
-        <v>334</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6684,10 +6690,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>334</v>
+      </c>
+      <c r="F170" t="s">
         <v>335</v>
-      </c>
-      <c r="F170" t="s">
-        <v>336</v>
       </c>
       <c r="G170" t="n">
         <v>3</v>
@@ -6713,10 +6719,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>336</v>
+      </c>
+      <c r="F171" t="s">
         <v>337</v>
-      </c>
-      <c r="F171" t="s">
-        <v>338</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6742,10 +6748,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>338</v>
+      </c>
+      <c r="F172" t="s">
         <v>339</v>
-      </c>
-      <c r="F172" t="s">
-        <v>340</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6800,10 +6806,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>340</v>
+      </c>
+      <c r="F174" t="s">
         <v>341</v>
-      </c>
-      <c r="F174" t="s">
-        <v>342</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6858,10 +6864,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>342</v>
+      </c>
+      <c r="F176" t="s">
         <v>343</v>
-      </c>
-      <c r="F176" t="s">
-        <v>344</v>
       </c>
       <c r="G176" t="n">
         <v>6</v>
@@ -6887,10 +6893,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>344</v>
+      </c>
+      <c r="F177" t="s">
         <v>345</v>
-      </c>
-      <c r="F177" t="s">
-        <v>346</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6916,10 +6922,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>346</v>
+      </c>
+      <c r="F178" t="s">
         <v>347</v>
-      </c>
-      <c r="F178" t="s">
-        <v>348</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6945,10 +6951,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>348</v>
+      </c>
+      <c r="F179" t="s">
         <v>349</v>
-      </c>
-      <c r="F179" t="s">
-        <v>350</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6974,10 +6980,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>350</v>
+      </c>
+      <c r="F180" t="s">
         <v>351</v>
-      </c>
-      <c r="F180" t="s">
-        <v>352</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7003,10 +7009,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>352</v>
+      </c>
+      <c r="F181" t="s">
         <v>353</v>
-      </c>
-      <c r="F181" t="s">
-        <v>354</v>
       </c>
       <c r="G181" t="n">
         <v>3</v>
@@ -7032,10 +7038,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>354</v>
+      </c>
+      <c r="F182" t="s">
         <v>355</v>
-      </c>
-      <c r="F182" t="s">
-        <v>356</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7061,10 +7067,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>356</v>
+      </c>
+      <c r="F183" t="s">
         <v>357</v>
-      </c>
-      <c r="F183" t="s">
-        <v>358</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7090,10 +7096,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>358</v>
+      </c>
+      <c r="F184" t="s">
         <v>359</v>
-      </c>
-      <c r="F184" t="s">
-        <v>360</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7119,10 +7125,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>360</v>
+      </c>
+      <c r="F185" t="s">
         <v>361</v>
-      </c>
-      <c r="F185" t="s">
-        <v>362</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7148,10 +7154,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>362</v>
+      </c>
+      <c r="F186" t="s">
         <v>363</v>
-      </c>
-      <c r="F186" t="s">
-        <v>364</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7177,10 +7183,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>364</v>
+      </c>
+      <c r="F187" t="s">
         <v>365</v>
-      </c>
-      <c r="F187" t="s">
-        <v>366</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7206,10 +7212,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>366</v>
+      </c>
+      <c r="F188" t="s">
         <v>367</v>
-      </c>
-      <c r="F188" t="s">
-        <v>368</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7235,10 +7241,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>368</v>
+      </c>
+      <c r="F189" t="s">
         <v>369</v>
-      </c>
-      <c r="F189" t="s">
-        <v>370</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7264,10 +7270,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>370</v>
+      </c>
+      <c r="F190" t="s">
         <v>371</v>
-      </c>
-      <c r="F190" t="s">
-        <v>372</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7293,10 +7299,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>372</v>
+      </c>
+      <c r="F191" t="s">
         <v>373</v>
-      </c>
-      <c r="F191" t="s">
-        <v>374</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7322,10 +7328,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>374</v>
+      </c>
+      <c r="F192" t="s">
         <v>375</v>
-      </c>
-      <c r="F192" t="s">
-        <v>376</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7351,10 +7357,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>376</v>
+      </c>
+      <c r="F193" t="s">
         <v>377</v>
-      </c>
-      <c r="F193" t="s">
-        <v>378</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7380,10 +7386,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>378</v>
+      </c>
+      <c r="F194" t="s">
         <v>379</v>
-      </c>
-      <c r="F194" t="s">
-        <v>380</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7409,10 +7415,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>380</v>
+      </c>
+      <c r="F195" t="s">
         <v>381</v>
-      </c>
-      <c r="F195" t="s">
-        <v>382</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7438,10 +7444,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>382</v>
+      </c>
+      <c r="F196" t="s">
         <v>383</v>
-      </c>
-      <c r="F196" t="s">
-        <v>384</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7467,10 +7473,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>384</v>
+      </c>
+      <c r="F197" t="s">
         <v>385</v>
-      </c>
-      <c r="F197" t="s">
-        <v>386</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7496,10 +7502,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>386</v>
+      </c>
+      <c r="F198" t="s">
         <v>387</v>
-      </c>
-      <c r="F198" t="s">
-        <v>388</v>
       </c>
       <c r="G198" t="n">
         <v>2</v>
@@ -7525,10 +7531,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>388</v>
+      </c>
+      <c r="F199" t="s">
         <v>389</v>
-      </c>
-      <c r="F199" t="s">
-        <v>390</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7554,10 +7560,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>390</v>
+      </c>
+      <c r="F200" t="s">
         <v>391</v>
-      </c>
-      <c r="F200" t="s">
-        <v>392</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7583,10 +7589,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>392</v>
+      </c>
+      <c r="F201" t="s">
         <v>393</v>
-      </c>
-      <c r="F201" t="s">
-        <v>394</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7612,10 +7618,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>394</v>
+      </c>
+      <c r="F202" t="s">
         <v>395</v>
-      </c>
-      <c r="F202" t="s">
-        <v>396</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7641,10 +7647,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>396</v>
+      </c>
+      <c r="F203" t="s">
         <v>397</v>
-      </c>
-      <c r="F203" t="s">
-        <v>398</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7670,10 +7676,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>398</v>
+      </c>
+      <c r="F204" t="s">
         <v>399</v>
-      </c>
-      <c r="F204" t="s">
-        <v>400</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7699,10 +7705,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>400</v>
+      </c>
+      <c r="F205" t="s">
         <v>401</v>
-      </c>
-      <c r="F205" t="s">
-        <v>402</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7728,10 +7734,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>402</v>
+      </c>
+      <c r="F206" t="s">
         <v>403</v>
-      </c>
-      <c r="F206" t="s">
-        <v>404</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7757,10 +7763,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>404</v>
+      </c>
+      <c r="F207" t="s">
         <v>405</v>
-      </c>
-      <c r="F207" t="s">
-        <v>406</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7786,10 +7792,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>406</v>
+      </c>
+      <c r="F208" t="s">
         <v>407</v>
-      </c>
-      <c r="F208" t="s">
-        <v>408</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7815,10 +7821,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>408</v>
+      </c>
+      <c r="F209" t="s">
         <v>409</v>
-      </c>
-      <c r="F209" t="s">
-        <v>410</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7844,10 +7850,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>410</v>
+      </c>
+      <c r="F210" t="s">
         <v>411</v>
-      </c>
-      <c r="F210" t="s">
-        <v>412</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7873,13 +7879,13 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>412</v>
+      </c>
+      <c r="F211" t="s">
         <v>413</v>
       </c>
-      <c r="F211" t="s">
-        <v>414</v>
-      </c>
       <c r="G211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H211" t="s">
         <v>4</v>
@@ -7902,10 +7908,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>414</v>
+      </c>
+      <c r="F212" t="s">
         <v>415</v>
-      </c>
-      <c r="F212" t="s">
-        <v>416</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -7931,10 +7937,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>416</v>
+      </c>
+      <c r="F213" t="s">
         <v>417</v>
-      </c>
-      <c r="F213" t="s">
-        <v>418</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -7960,10 +7966,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>418</v>
+      </c>
+      <c r="F214" t="s">
         <v>419</v>
-      </c>
-      <c r="F214" t="s">
-        <v>420</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -7989,10 +7995,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>420</v>
+      </c>
+      <c r="F215" t="s">
         <v>421</v>
-      </c>
-      <c r="F215" t="s">
-        <v>422</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8018,10 +8024,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>422</v>
+      </c>
+      <c r="F216" t="s">
         <v>423</v>
-      </c>
-      <c r="F216" t="s">
-        <v>424</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8047,10 +8053,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>424</v>
+      </c>
+      <c r="F217" t="s">
         <v>425</v>
-      </c>
-      <c r="F217" t="s">
-        <v>426</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8076,10 +8082,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>426</v>
+      </c>
+      <c r="F218" t="s">
         <v>427</v>
-      </c>
-      <c r="F218" t="s">
-        <v>428</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8105,10 +8111,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>428</v>
+      </c>
+      <c r="F219" t="s">
         <v>429</v>
-      </c>
-      <c r="F219" t="s">
-        <v>430</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8134,10 +8140,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>430</v>
+      </c>
+      <c r="F220" t="s">
         <v>431</v>
-      </c>
-      <c r="F220" t="s">
-        <v>432</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8163,10 +8169,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>432</v>
+      </c>
+      <c r="F221" t="s">
         <v>433</v>
-      </c>
-      <c r="F221" t="s">
-        <v>434</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8192,10 +8198,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>434</v>
+      </c>
+      <c r="F222" t="s">
         <v>435</v>
-      </c>
-      <c r="F222" t="s">
-        <v>436</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8221,10 +8227,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>436</v>
+      </c>
+      <c r="F223" t="s">
         <v>437</v>
-      </c>
-      <c r="F223" t="s">
-        <v>438</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8250,10 +8256,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>438</v>
+      </c>
+      <c r="F224" t="s">
         <v>439</v>
-      </c>
-      <c r="F224" t="s">
-        <v>440</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8279,10 +8285,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>440</v>
+      </c>
+      <c r="F225" t="s">
         <v>441</v>
-      </c>
-      <c r="F225" t="s">
-        <v>442</v>
       </c>
       <c r="G225" t="n">
         <v>2</v>
@@ -8308,10 +8314,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>442</v>
+      </c>
+      <c r="F226" t="s">
         <v>443</v>
-      </c>
-      <c r="F226" t="s">
-        <v>444</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8337,10 +8343,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>444</v>
+      </c>
+      <c r="F227" t="s">
         <v>445</v>
-      </c>
-      <c r="F227" t="s">
-        <v>446</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8366,10 +8372,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
+        <v>446</v>
+      </c>
+      <c r="F228" t="s">
         <v>447</v>
-      </c>
-      <c r="F228" t="s">
-        <v>448</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8424,10 +8430,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
+        <v>448</v>
+      </c>
+      <c r="F230" t="s">
         <v>449</v>
-      </c>
-      <c r="F230" t="s">
-        <v>450</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8453,10 +8459,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
+        <v>450</v>
+      </c>
+      <c r="F231" t="s">
         <v>451</v>
-      </c>
-      <c r="F231" t="s">
-        <v>452</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8482,10 +8488,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
+        <v>452</v>
+      </c>
+      <c r="F232" t="s">
         <v>453</v>
-      </c>
-      <c r="F232" t="s">
-        <v>454</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8511,10 +8517,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
+        <v>454</v>
+      </c>
+      <c r="F233" t="s">
         <v>455</v>
-      </c>
-      <c r="F233" t="s">
-        <v>456</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8540,10 +8546,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
+        <v>456</v>
+      </c>
+      <c r="F234" t="s">
         <v>457</v>
-      </c>
-      <c r="F234" t="s">
-        <v>458</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8569,10 +8575,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
+        <v>458</v>
+      </c>
+      <c r="F235" t="s">
         <v>459</v>
-      </c>
-      <c r="F235" t="s">
-        <v>460</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8598,10 +8604,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
+        <v>460</v>
+      </c>
+      <c r="F236" t="s">
         <v>461</v>
-      </c>
-      <c r="F236" t="s">
-        <v>462</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8627,10 +8633,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
+        <v>462</v>
+      </c>
+      <c r="F237" t="s">
         <v>463</v>
-      </c>
-      <c r="F237" t="s">
-        <v>464</v>
       </c>
       <c r="G237" t="n">
         <v>3</v>
@@ -8656,18 +8662,76 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
+        <v>464</v>
+      </c>
+      <c r="F238" t="s">
         <v>465</v>
       </c>
-      <c r="F238" t="s">
+      <c r="G238" t="n">
+        <v>1</v>
+      </c>
+      <c r="H238" t="s">
+        <v>4</v>
+      </c>
+      <c r="I238" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="s">
+        <v>0</v>
+      </c>
+      <c r="C239" t="s">
+        <v>1</v>
+      </c>
+      <c r="D239" t="n">
+        <v>238</v>
+      </c>
+      <c r="E239" t="s">
         <v>466</v>
       </c>
-      <c r="G238" t="n">
-        <v>1</v>
-      </c>
-      <c r="H238" t="s">
-        <v>4</v>
-      </c>
-      <c r="I238" t="n">
+      <c r="F239" t="s">
+        <v>467</v>
+      </c>
+      <c r="G239" t="n">
+        <v>4</v>
+      </c>
+      <c r="H239" t="s">
+        <v>4</v>
+      </c>
+      <c r="I239" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="s">
+        <v>0</v>
+      </c>
+      <c r="C240" t="s">
+        <v>1</v>
+      </c>
+      <c r="D240" t="n">
+        <v>239</v>
+      </c>
+      <c r="E240" t="s">
+        <v>466</v>
+      </c>
+      <c r="F240" t="s">
+        <v>468</v>
+      </c>
+      <c r="G240" t="n">
+        <v>1</v>
+      </c>
+      <c r="H240" t="s">
+        <v>4</v>
+      </c>
+      <c r="I240" t="n">
         <v>3</v>
       </c>
     </row>
